--- a/pythonProject/BDP数据.xlsx
+++ b/pythonProject/BDP数据.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,75 +441,75 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2008_topic6</t>
+          <t>2008_topic2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2011_topic2</t>
+          <t>2011_topic17</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.6306985658126518</t>
+          <t>0.6559269707904489</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2008_topic7</t>
+          <t>2008_topic5</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2011_topic19</t>
+          <t>2011_topic3</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.9210950181141588</t>
+          <t>0.6628175786355728</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2008_topic12</t>
+          <t>2008_topic6</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2011_topic9</t>
+          <t>2011_topic10</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.5787336453989526</t>
+          <t>0.953300687514589</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2008_topic17</t>
+          <t>2008_topic7</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2011_topic10</t>
+          <t>2011_topic11</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.9996847956542624</t>
+          <t>0.6835487669159969</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2008_topic18</t>
+          <t>2008_topic8</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -519,651 +519,787 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.8783933537326755</t>
+          <t>0.6438384094765597</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2008_topic20</t>
+          <t>2008_topic9</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2011_topic4</t>
+          <t>2011_topic14</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.6895465659264027</t>
+          <t>0.9244525944635628</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2011_topic8</t>
+          <t>2008_topic10</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2014_topic6</t>
+          <t>2011_topic4</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.6284524143993987</t>
+          <t>0.6569527955508907</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2011_topic9</t>
+          <t>2008_topic11</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2014_topic13</t>
+          <t>2011_topic2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.7092279765350457</t>
+          <t>0.547853652164532</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2011_topic15</t>
+          <t>2008_topic12</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2014_topic5</t>
+          <t>2011_topic6</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.5448159298717343</t>
+          <t>0.9271189593515704</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2011_topic17</t>
+          <t>2008_topic14</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2014_topic18</t>
+          <t>2011_topic13</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.703915968764085</t>
+          <t>0.7884806728208681</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2011_topic19</t>
+          <t>2008_topic15</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2014_topic6</t>
+          <t>2011_topic7</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.736290208626095</t>
+          <t>0.7407189794873723</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2014_topic2</t>
+          <t>2008_topic16</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2017_topic15</t>
+          <t>2011_topic1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.6470341323172326</t>
+          <t>0.8310469330470472</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2014_topic3</t>
+          <t>2008_topic18</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2017_topic14</t>
+          <t>2011_topic5</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.7228249859090222</t>
+          <t>0.8470473336241856</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2014_topic5</t>
+          <t>2008_topic19</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2017_topic1</t>
+          <t>2011_topic9</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.6242769605389266</t>
+          <t>0.7911339990554394</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>2011_topic8</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>2014_topic6</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2017_topic4</t>
-        </is>
-      </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.7005529984766267</t>
+          <t>0.6284524143993987</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2014_topic7</t>
+          <t>2011_topic9</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2017_topic18</t>
+          <t>2014_topic13</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.720706718025779</t>
+          <t>0.7092279765350457</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2014_topic9</t>
+          <t>2011_topic15</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2017_topic5</t>
+          <t>2014_topic5</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.5390007998229498</t>
+          <t>0.5448159298717343</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2014_topic10</t>
+          <t>2011_topic17</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2017_topic9</t>
+          <t>2014_topic18</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.8777238584645768</t>
+          <t>0.703915968764085</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2014_topic14</t>
+          <t>2011_topic19</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2017_topic14</t>
+          <t>2014_topic6</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.5778126451609447</t>
+          <t>0.736290208626095</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2014_topic17</t>
+          <t>2014_topic2</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2017_topic13</t>
+          <t>2017_topic15</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.5138689289411756</t>
+          <t>0.6470341323172326</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2014_topic20</t>
+          <t>2014_topic3</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2017_topic3</t>
+          <t>2017_topic14</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.8652622376416285</t>
+          <t>0.7228249859090222</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2017_topic2</t>
+          <t>2014_topic5</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2019_topic1</t>
+          <t>2017_topic1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.6268950213170038</t>
+          <t>0.6242769605389266</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>2014_topic6</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
           <t>2017_topic4</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2019_topic10</t>
-        </is>
-      </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.692665574555782</t>
+          <t>0.7005529984766267</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2017_topic6</t>
+          <t>2014_topic7</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2019_topic11</t>
+          <t>2017_topic18</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.797506113155752</t>
+          <t>0.720706718025779</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2017_topic8</t>
+          <t>2014_topic9</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2019_topic8</t>
+          <t>2017_topic5</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.7332875111521174</t>
+          <t>0.5390007998229498</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>2014_topic10</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
           <t>2017_topic9</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2019_topic7</t>
-        </is>
-      </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.9308587122596453</t>
+          <t>0.8777238584645768</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2017_topic11</t>
+          <t>2014_topic14</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2019_topic17</t>
+          <t>2017_topic14</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.5810593193024837</t>
+          <t>0.5778126451609447</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2017_topic12</t>
+          <t>2014_topic20</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2019_topic4</t>
+          <t>2017_topic3</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.4897217361062652</t>
+          <t>0.8652622376416285</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2017_topic19</t>
+          <t>2014_topic20</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2019_topic6</t>
+          <t>2017_topic3</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.5018792851552434</t>
+          <t>0.8652622376416285</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2017_topic20</t>
+          <t>2017_topic2</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2019_topic13</t>
+          <t>2019_topic1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.5048976787141413</t>
+          <t>0.6268950213170038</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2017_topic21</t>
+          <t>2017_topic4</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2019_topic2</t>
+          <t>2019_topic10</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.8680200900171441</t>
+          <t>0.692665574555782</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2019_topic2</t>
+          <t>2017_topic6</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2021_topic10</t>
+          <t>2019_topic11</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.9523614975309057</t>
+          <t>0.797506113155752</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2019_topic4</t>
+          <t>2017_topic8</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2021_topic3</t>
+          <t>2019_topic8</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.504717478287314</t>
+          <t>0.7332875111521174</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2019_topic5</t>
+          <t>2017_topic9</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2021_topic4</t>
+          <t>2019_topic7</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.5973346443761043</t>
+          <t>0.9308587122596453</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2019_topic7</t>
+          <t>2017_topic11</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2021_topic14</t>
+          <t>2019_topic17</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.9458930832978664</t>
+          <t>0.5810593193024837</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2019_topic8</t>
+          <t>2017_topic21</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2021_topic6</t>
+          <t>2019_topic2</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.878241696584694</t>
+          <t>0.8680200900171441</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2019_topic10</t>
+          <t>2017_topic19</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2021_topic5</t>
+          <t>2019_topic6</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0.5035232838370921</t>
+          <t>0.5018792851552434</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2019_topic11</t>
+          <t>2017_topic20</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2021_topic11</t>
+          <t>2019_topic13</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0.6323909577416582</t>
+          <t>0.5048976787141413</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2019_topic13</t>
+          <t>2017_topic21</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2021_topic19</t>
+          <t>2019_topic2</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0.7331681879715565</t>
+          <t>0.8680200900171441</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2019_topic15</t>
+          <t>2019_topic2</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2021_topic12</t>
+          <t>2021_topic10</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0.622938796661489</t>
+          <t>0.9523614975309057</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2019_topic16</t>
+          <t>2019_topic5</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2021_topic18</t>
+          <t>2021_topic4</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0.643358960365003</t>
+          <t>0.5973346443761043</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2019_topic18</t>
+          <t>2019_topic7</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2021_topic5</t>
+          <t>2021_topic14</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0.6703296460864853</t>
+          <t>0.9458930832978664</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
+          <t>2019_topic8</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2021_topic6</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>0.878241696584694</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2019_topic11</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2021_topic11</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>0.6323909577416582</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2019_topic13</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2021_topic19</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>0.7331681879715565</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2019_topic15</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2021_topic12</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>0.622938796661489</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2019_topic16</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2021_topic18</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>0.643358960365003</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2019_topic18</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2021_topic5</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>0.6703296460864853</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
           <t>2019_topic20</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>2021_topic13</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>0.7143847765267327</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2019_topic18</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2021_topic5</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>0.6703296460864853</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2019_topic20</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2021_topic13</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
         <is>
           <t>0.7143847765267327</t>
         </is>
